--- a/test/plate_test.xlsx
+++ b/test/plate_test.xlsx
@@ -61,6 +61,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,7 +146,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
